--- a/algstudent/s0/session0.xlsx
+++ b/algstudent/s0/session0.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4CCBB-297C-4CED-8521-8C6C8C049493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8925" yWindow="1050" windowWidth="17535" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
   <si>
     <t>n</t>
   </si>
@@ -85,12 +86,27 @@
   </si>
   <si>
     <t>NO opt.</t>
+  </si>
+  <si>
+    <t>WITH opt.</t>
+  </si>
+  <si>
+    <t>i3-7100</t>
+  </si>
+  <si>
+    <t>8,0 GB</t>
+  </si>
+  <si>
+    <t>PythonA1</t>
+  </si>
+  <si>
+    <t>JavaA1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +138,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,100 +420,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
     <col min="14" max="14" width="3.85546875" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>10000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>20000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>40000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>80000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>160000</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>320000</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>640000</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1528</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>6212</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>25447</v>
       </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>10000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>20000</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>40000</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>80000</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>160000</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>320000</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>640000</v>
       </c>
       <c r="L8" t="s">
@@ -505,29 +551,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1528</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>6212</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>25447</v>
       </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L9" t="s">
@@ -536,14 +582,38 @@
       <c r="M9" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
+      <c r="D10" s="1">
+        <v>3562</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13876</v>
+      </c>
+      <c r="F10" s="1">
+        <v>55217</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="L10" t="s">
         <v>6</v>
       </c>
@@ -553,72 +623,144 @@
       <c r="O10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>10000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>20000</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>40000</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>80000</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>160000</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>320000</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>640000</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>310</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>1234</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>4918</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>19817</v>
       </c>
-      <c r="H15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="H15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1528</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6212</v>
+      </c>
+      <c r="F16" s="1">
+        <v>25447</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -627,25 +769,25 @@
       <c r="C19" t="s">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>10000</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>20000</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>40000</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>80000</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>160000</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>320000</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>640000</v>
       </c>
     </row>
@@ -656,25 +798,25 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>1528</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>6212</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>25447</v>
       </c>
-      <c r="G20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -682,25 +824,25 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>182</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>676</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>2569</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>9866</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>37146</v>
       </c>
-      <c r="I21" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="I21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -708,27 +850,45 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>96</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>340</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>1269</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>4890</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>18059</v>
       </c>
-      <c r="I22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" t="s">
-        <v>2</v>
-      </c>
+      <c r="I22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -737,25 +897,25 @@
       <c r="C25" t="s">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>10000</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>20000</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>40000</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>80000</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>160000</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>320000</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>640000</v>
       </c>
     </row>
@@ -766,25 +926,25 @@
       <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>310</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>1234</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>4918</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>19817</v>
       </c>
-      <c r="H26" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="H26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -795,31 +955,183 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>38</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>131</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>483</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>1807</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>6810</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>25819</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>14</v>
+      </c>
+      <c r="D28" s="1">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1">
+        <v>73</v>
+      </c>
+      <c r="F28" s="1">
+        <v>258</v>
+      </c>
+      <c r="G28" s="1">
+        <v>937</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3539</v>
+      </c>
+      <c r="I28" s="1">
+        <v>13341</v>
+      </c>
+      <c r="J28" s="1">
+        <v>50984</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>40000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>80000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>160000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>320000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1">
+        <v>280</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1110</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4429</v>
+      </c>
+      <c r="H32" s="1">
+        <v>17729</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>31</v>
+      </c>
+      <c r="F33" s="1">
+        <v>112</v>
+      </c>
+      <c r="G33" s="1">
+        <v>414</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1542</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5855</v>
+      </c>
+      <c r="J33" s="1">
+        <v>22065</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1">
+        <v>17</v>
+      </c>
+      <c r="F34" s="1">
+        <v>57</v>
+      </c>
+      <c r="G34" s="1">
+        <v>213</v>
+      </c>
+      <c r="H34" s="1">
+        <v>793</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2940</v>
+      </c>
+      <c r="J34" s="1">
+        <v>11103</v>
       </c>
     </row>
   </sheetData>
